--- a/smartclassonlinesel/FlipLearn/Results/snapshots/Parent_Execution_Results.xlsx
+++ b/smartclassonlinesel/FlipLearn/Results/snapshots/Parent_Execution_Results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>Username</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Parent</t>
   </si>
   <si>
-    <t>Totaltime: 67 MS</t>
+    <t>Totaltime: 57 MS</t>
   </si>
   <si>
     <t>Fliplearn - Home</t>
@@ -59,91 +59,73 @@
     <t>Working</t>
   </si>
   <si>
-    <t>ets_devendrakumar</t>
+    <t>gurmeetsingh_995672</t>
+  </si>
+  <si>
+    <t>Totaltime: 47 MS</t>
+  </si>
+  <si>
+    <t>Fliplearn</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Totaltime: 70 MS</t>
+  </si>
+  <si>
+    <t>Fliplearn - PictureGallery</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/pictureGallery</t>
+  </si>
+  <si>
+    <t>Totaltime: 69 MS</t>
+  </si>
+  <si>
+    <t>Fliplearn - Events</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/events/index</t>
+  </si>
+  <si>
+    <t>Fliplearn - Myannouncements Announcements</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/announcements/myannouncements</t>
+  </si>
+  <si>
+    <t>Totaltime: 63 MS</t>
+  </si>
+  <si>
+    <t>Fliplearn - Tdirectory User</t>
+  </si>
+  <si>
+    <t>http://www.fliplearn.com/index.php/user/Tdirectory</t>
+  </si>
+  <si>
+    <t>Perform</t>
   </si>
   <si>
     <t>Totaltime: 53 MS</t>
   </si>
   <si>
-    <t>Fliplearn</t>
-  </si>
-  <si>
-    <t>http://www.fliplearn.com/index.php</t>
-  </si>
-  <si>
-    <t>Share</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Totaltime: 70 MS</t>
-  </si>
-  <si>
-    <t>Fliplearn - WallPosts</t>
-  </si>
-  <si>
-    <t>http://www.fliplearn.com/index.php/wallPosts</t>
-  </si>
-  <si>
-    <t>Fliplearn - Messages</t>
-  </si>
-  <si>
-    <t>http://www.fliplearn.com/index.php/messages</t>
-  </si>
-  <si>
-    <t>Fliplearn - PictureGallery</t>
-  </si>
-  <si>
-    <t>http://www.fliplearn.com/index.php/pictureGallery</t>
-  </si>
-  <si>
-    <t>Totaltime: 60 MS</t>
-  </si>
-  <si>
-    <t>Fliplearn - Events</t>
-  </si>
-  <si>
-    <t>http://www.fliplearn.com/index.php/events/index</t>
-  </si>
-  <si>
-    <t>Fliplearn - Myannouncements Announcements</t>
-  </si>
-  <si>
-    <t>http://www.fliplearn.com/index.php/announcements/myannouncements</t>
-  </si>
-  <si>
-    <t>Totaltime: 54 MS</t>
-  </si>
-  <si>
-    <t>Fliplearn - Tdirectory User</t>
-  </si>
-  <si>
-    <t>http://www.fliplearn.com/index.php/user/Tdirectory</t>
-  </si>
-  <si>
-    <t>Perform</t>
-  </si>
-  <si>
-    <t>Totaltime: 59 MS</t>
-  </si>
-  <si>
     <t>Fliplearn - Report Attendance</t>
   </si>
   <si>
     <t>http://www.fliplearn.com/index.php/attendance/report</t>
   </si>
   <si>
-    <t>Totaltime: 63 MS</t>
-  </si>
-  <si>
-    <t>Fliplearn - StudentReport Marks</t>
-  </si>
-  <si>
-    <t>http://www.fliplearn.com/index.php/marks/studentReport?uuid=121900&amp;gid=4466</t>
-  </si>
-  <si>
-    <t>Totaltime: 56 MS</t>
+    <t>Totaltime: 81 MS</t>
   </si>
   <si>
     <t>Fliplearn - Dashboard</t>
@@ -155,28 +137,10 @@
     <t>Learn</t>
   </si>
   <si>
-    <t>Totaltime: 51 MS</t>
-  </si>
-  <si>
-    <t>Fliplearn - View MyClassroom</t>
-  </si>
-  <si>
-    <t>http://www.fliplearn.com/index.php/MyClassroom/1005</t>
-  </si>
-  <si>
-    <t>Totaltime: 48 MS</t>
-  </si>
-  <si>
-    <t>Fliplearn - smartclass - English</t>
-  </si>
-  <si>
-    <t>http://www.fliplearn.com/index.php/smartClass/study/11</t>
-  </si>
-  <si>
     <t>Fliplearn - Mathguru</t>
   </si>
   <si>
-    <t>http://www.fliplearn.com/index.php/mathguru/index?level_id=4</t>
+    <t>http://www.fliplearn.com/index.php/mathguru/index?level_id=10</t>
   </si>
 </sst>
 </file>
@@ -184,7 +148,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="31">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -242,8 +206,108 @@
       <sz val="13.0"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +324,16 @@
         <fgColor indexed="13"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -273,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -285,6 +359,26 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -386,57 +480,63 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4" t="s">
+      <c r="D4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
+      <c r="J4" s="20">
+        <f>HYPERLINK("Failed", "Snapshot")</f>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="A5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" t="s">
+      <c r="D5" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
+      <c r="J5" s="30">
+        <f>HYPERLINK("Failed", "Snapshot")</f>
       </c>
     </row>
     <row r="6">
@@ -454,13 +554,13 @@
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
@@ -481,13 +581,13 @@
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
@@ -508,13 +608,13 @@
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
@@ -535,13 +635,13 @@
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
@@ -555,20 +655,20 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -582,20 +682,20 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -609,109 +709,22 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" t="s">
         <v>14</v>
       </c>
     </row>
